--- a/file1.xlsx
+++ b/file1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Pythonproject/ProjetSynthese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA61CA2E-48B7-B847-93E7-7B5621016154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D26981C-3379-CB48-94C4-D658D32AADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>s</t>
   </si>
@@ -384,15 +384,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
@@ -400,16 +400,16 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/file1.xlsx
+++ b/file1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Pythonproject/ProjetSynthese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D26981C-3379-CB48-94C4-D658D32AADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C7AC13-4DD2-884C-A616-41CD920CCB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>s</t>
+    <t>A</t>
   </si>
   <si>
-    <t>a</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -396,22 +396,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
